--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1343551.151886114</v>
+        <v>1447730.786337185</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.74395957035385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>317.7571317187188</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734120907</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004727</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
-        <v>168.3201343148303</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>352.7756691306353</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>57.76865805628429</v>
       </c>
       <c r="H7" t="n">
-        <v>35.69861698824742</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.73722946637125</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.9821873027535</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>82.59694704859947</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>9.644421510690469</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>41.02686156550217</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2248,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>98.79136808967741</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2287,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000749</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>60.64713141730873</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>108.9065924712602</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520986</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>166.3208822291524</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216643</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410134</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>181.3074675142875</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>247.5867185477173</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1938.90602284268</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4319,61 +4321,61 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609173</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993395</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993395</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2766.859418723281</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.393660462201</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y2" t="n">
-        <v>2393.393660462201</v>
+        <v>2325.505862906802</v>
       </c>
     </row>
     <row r="3">
@@ -4389,70 +4391,70 @@
         <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064752</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080133</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
         <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>528.555433640143</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6192507122361</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6192507122361</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>359.6192507122361</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143257</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846022</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621305</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>880.2242361621305</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>710.2038984703827</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>710.2038984703827</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379708</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2079.457471651794</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y5" t="n">
-        <v>1689.318139675982</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.4557027387031</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="C7" t="n">
-        <v>812.5195198107962</v>
+        <v>421.8708831972622</v>
       </c>
       <c r="D7" t="n">
-        <v>662.4028803984604</v>
+        <v>271.7542437849264</v>
       </c>
       <c r="E7" t="n">
-        <v>514.4897868160673</v>
+        <v>271.7542437849264</v>
       </c>
       <c r="F7" t="n">
-        <v>367.5998393181569</v>
+        <v>124.8642962870161</v>
       </c>
       <c r="G7" t="n">
-        <v>199.8970026928759</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.09371846696</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.09371846696</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.104167568943</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.104167568943</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524209</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548397</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4871,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443.0505103572859</v>
+        <v>470.5862204338725</v>
       </c>
       <c r="C10" t="n">
-        <v>443.0505103572859</v>
+        <v>470.5862204338725</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>320.4695810215368</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>320.4695810215368</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>173.5796335236264</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>173.5796335236264</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4996,16 +4998,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5133,10 +5135,10 @@
         <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,61 +5175,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
         <v>2273.199413378161</v>
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,7 +5363,7 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1344.266747951538</v>
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3275.130390493382</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C22" t="n">
-        <v>3106.194207565476</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D22" t="n">
-        <v>2956.07756815314</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E22" t="n">
-        <v>2808.164474570747</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.274527072836</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467152</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X22" t="n">
-        <v>3677.571434467152</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y22" t="n">
-        <v>3456.778855323622</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6005,31 +6007,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378165</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172278</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
@@ -6233,7 +6235,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6245,16 +6247,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651093</v>
+        <v>2897.617548589219</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723187</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310851</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728458</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F28" t="n">
-        <v>2540.658291728458</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G28" t="n">
-        <v>2540.658291728458</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>2398.946460570656</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
         <v>4690.833152398593</v>
@@ -6409,25 +6411,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>4580.826493336715</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421534</v>
+        <v>4361.225028359656</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765732</v>
+        <v>4072.149801703854</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559845</v>
+        <v>3817.465313497967</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>3528.048143461006</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624867</v>
+        <v>3300.058592562989</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481333</v>
+        <v>3079.266013419459</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C31" t="n">
-        <v>2728.681365661313</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661313</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661313</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>129.5921236250094</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="32">
@@ -6692,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>2622.596178821929</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>3117.921785037688</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>816.5764010855556</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098192</v>
+        <v>2804.652647788941</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819123</v>
+        <v>2635.716464861034</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695765</v>
+        <v>2485.599825448699</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871834</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F37" t="n">
-        <v>369.499740389273</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>3979.184900903576</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718567</v>
+        <v>3724.500412697689</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681606</v>
+        <v>3435.083242660729</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783589</v>
+        <v>3207.093691762711</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640059</v>
+        <v>2986.301112619181</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,16 +7496,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
   </sheetData>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23470,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>40.23897475306337</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>66.73277020259144</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891692</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>20.61870490125681</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038442</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>119.8635921600917</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>32.89260457060459</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>104.8770068749566</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062535</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727594</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820615</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613934</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016931.366972016</v>
+        <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555781</v>
+        <v>311813.3787555774</v>
       </c>
       <c r="D6" t="n">
         <v>311813.3787555774</v>
       </c>
       <c r="E6" t="n">
-        <v>63714.88109813625</v>
+        <v>63714.88109813657</v>
       </c>
       <c r="F6" t="n">
-        <v>389127.3429054921</v>
+        <v>389127.3429054916</v>
       </c>
       <c r="G6" t="n">
-        <v>389127.3429054916</v>
+        <v>389127.3429054915</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054915</v>
+        <v>389127.3429054914</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054915</v>
+        <v>389127.3429054913</v>
       </c>
       <c r="J6" t="n">
-        <v>171596.1405082139</v>
+        <v>171596.1405082141</v>
       </c>
       <c r="K6" t="n">
         <v>389127.3429054915</v>
       </c>
       <c r="L6" t="n">
+        <v>389127.3429054917</v>
+      </c>
+      <c r="M6" t="n">
+        <v>304072.3149699798</v>
+      </c>
+      <c r="N6" t="n">
+        <v>389127.3429054916</v>
+      </c>
+      <c r="O6" t="n">
+        <v>389127.3429054917</v>
+      </c>
+      <c r="P6" t="n">
         <v>389127.3429054915</v>
-      </c>
-      <c r="M6" t="n">
-        <v>304072.3149699797</v>
-      </c>
-      <c r="N6" t="n">
-        <v>389127.3429054915</v>
-      </c>
-      <c r="O6" t="n">
-        <v>389127.3429054916</v>
-      </c>
-      <c r="P6" t="n">
-        <v>389127.3429054914</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.9898820931267</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>47.51576005228873</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
-        <v>57.38952107420681</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.95543154783377</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.2571502027439</v>
       </c>
       <c r="H7" t="n">
-        <v>109.0563979260734</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>356.9966121971093</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.25575135330007</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>66.01852596961288</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>135.1105934036303</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31199,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31604,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>574.6535388222617</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,10 +32083,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -32315,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>616.5397119226058</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32569,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>381.6404378718154</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M36" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34448,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>314.105962234273</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35252,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>432.0572943778172</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,10 +35731,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36217,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>243.7989988974564</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M36" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>176.264523259914</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1447730.786337185</v>
+        <v>1443718.176323192</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>57.29212650174214</v>
       </c>
       <c r="C2" t="n">
-        <v>317.7571317187188</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>51.4927414753738</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>282.6988068886403</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.81275980261576</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>57.76865805628429</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>51.06561173382014</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.293091632806</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>383.9821873027535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.644421510690469</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>97.02629574295541</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>130.4114987159128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>108.9065924712602</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>35.41770597126713</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>166.3208822291524</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>239.7247859410134</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>181.3074675142875</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670904</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>247.5867185477173</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1938.90602284268</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2325.505862906802</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>2325.505862906802</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1683.595793738173</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="6">
@@ -4640,13 +4640,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>590.8070661251691</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>421.8708831972622</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>271.7542437849264</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>271.7542437849264</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>124.8642962870161</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>118.0935424259411</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251691</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251691</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>758.7856865549913</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>400.5199879482408</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993394</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>3119.628073993394</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>3119.628073993394</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4871,16 +4871,16 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,28 +4889,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.5862204338725</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>470.5862204338725</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>320.4695810215368</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>320.4695810215368</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>173.5796335236264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>173.5796335236264</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641123</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641123</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>597.2570777219835</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>449.3439841395904</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>449.3439841395904</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2897.617548589219</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4580.826493336715</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4361.225028359656</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4072.149801703854</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3817.465313497967</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3528.048143461006</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3300.058592562989</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3079.266013419459</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>296.7882229101294</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>129.5921236250094</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2622.596178821929</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3117.921785037688</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3715.300272664239</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1554.775701164064</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,43 +6925,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2804.652647788941</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2635.716464861034</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2485.599825448699</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3979.184900903576</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3724.500412697689</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3435.083242660729</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3207.093691762711</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>2986.301112619181</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7192,34 +7192,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
         <v>402.7245934908938</v>
@@ -7326,58 +7326,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>552.8412329032296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
         <v>402.7245934908939</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1472.688997811978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1183.271827775017</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>955.2822768769995</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.4896977334694</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>68.49784254931343</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>72.11969353038442</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8770068749567</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>119.8635921600917</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>46.45968844823074</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194675</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.6918815281</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
@@ -26337,19 +26337,19 @@
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062537</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93403.78684820639</v>
+      </c>
+      <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
-      <c r="C4" t="n">
-        <v>93403.78684820631</v>
-      </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26524,46 +26524,46 @@
         <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555774</v>
+        <v>311813.3787555771</v>
       </c>
       <c r="D6" t="n">
         <v>311813.3787555774</v>
       </c>
       <c r="E6" t="n">
-        <v>63714.88109813657</v>
+        <v>63367.50184377916</v>
       </c>
       <c r="F6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511347</v>
       </c>
       <c r="G6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="H6" t="n">
-        <v>389127.3429054914</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="I6" t="n">
-        <v>389127.3429054913</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="J6" t="n">
-        <v>171596.1405082141</v>
+        <v>171248.7612538571</v>
       </c>
       <c r="K6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="L6" t="n">
-        <v>389127.3429054917</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="M6" t="n">
-        <v>304072.3149699798</v>
+        <v>303724.9357156227</v>
       </c>
       <c r="N6" t="n">
-        <v>389127.3429054916</v>
+        <v>388779.9636511345</v>
       </c>
       <c r="O6" t="n">
-        <v>389127.3429054917</v>
+        <v>388779.9636511346</v>
       </c>
       <c r="P6" t="n">
-        <v>389127.3429054915</v>
+        <v>388779.9636511346</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,10 +26819,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>325.4417151617384</v>
       </c>
       <c r="C2" t="n">
-        <v>47.51576005228873</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>234.7190967302391</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>100.0350347748403</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>274.9183408758533</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>108.2571502027439</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>93.68940318050065</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.6372784394558</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.25575135330007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>135.1105934036303</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>381.6404378718154</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>243.7989988974564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899027</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1443718.176323192</v>
+        <v>1445478.706625978</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>57.29212650174214</v>
+        <v>370.39785842954</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>143.3002560168316</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>51.4927414753738</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>282.6988068886403</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>96.42217904608398</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>51.06561173382014</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>61.42978662487899</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>271.293091632806</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>38.18739105194347</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380502</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>27.24739666248581</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>97.02629574295541</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7579938798629</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670904</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>80.11763046889868</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883009</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>2719.306689612894</v>
       </c>
       <c r="Y2" t="n">
-        <v>2403.03827352421</v>
+        <v>2719.306689612894</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>678.2257657051542</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>509.2895827772473</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>359.1729433649116</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>211.2598497825185</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1683.595793738173</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1683.595793738173</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W4" t="n">
-        <v>1394.178623701213</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X4" t="n">
-        <v>1166.189072803195</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y4" t="n">
-        <v>945.3964936596652</v>
+        <v>678.2257657051542</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2630.721789066531</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>285.7963790512222</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0935424259411</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1865.244258568413</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1127.748203495403</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>758.7856865549913</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>400.5199879482408</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4865620565176</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535336</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,19 +5056,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.5007694647281</v>
+        <v>733.455065717131</v>
       </c>
       <c r="C13" t="n">
-        <v>631.5645865368213</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>481.4479471244855</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>333.5348535420924</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>333.5348535420924</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949679</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>985.7836617409704</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649718</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.22470571474</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1167.43212657121</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5846,7 +5846,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>212.6630592897471</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6363,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6919,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7311,25 +7311,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7344,34 +7344,34 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648815</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611854</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
         <v>974.1018203925706</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.999424436142</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>68.49784254931343</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30.48882721876495</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>22.63678056686642</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856988</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.22910392194675</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>137.2878198583896</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815281</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>921458.691881528</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.6918815278</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>921458.6918815278</v>
+        <v>921458.6918815279</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>921458.6918815279</v>
+        <v>921458.691881528</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26322,10 +26322,10 @@
         <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
@@ -26334,25 +26334,25 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062537</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820638</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1016931.366972015</v>
       </c>
       <c r="C6" t="n">
-        <v>311813.3787555771</v>
+        <v>311813.3787555774</v>
       </c>
       <c r="D6" t="n">
-        <v>311813.3787555774</v>
+        <v>311813.3787555773</v>
       </c>
       <c r="E6" t="n">
-        <v>63367.50184377916</v>
+        <v>63680.14317270066</v>
       </c>
       <c r="F6" t="n">
-        <v>388779.9636511347</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="G6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800561</v>
       </c>
       <c r="H6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="I6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="J6" t="n">
-        <v>171248.7612538571</v>
+        <v>171561.4025827782</v>
       </c>
       <c r="K6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="L6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800559</v>
       </c>
       <c r="M6" t="n">
-        <v>303724.9357156227</v>
+        <v>304037.577044544</v>
       </c>
       <c r="N6" t="n">
-        <v>388779.9636511345</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="O6" t="n">
-        <v>388779.9636511346</v>
+        <v>389092.6049800558</v>
       </c>
       <c r="P6" t="n">
-        <v>388779.9636511346</v>
+        <v>389092.6049800558</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26962,10 +26962,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>325.4417151617384</v>
+        <v>12.33598323394057</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.120792006099606</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>234.7190967302391</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.0350347748403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>289.8157596099696</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>93.68940318050065</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>27.50236604516834</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>110.6372784394558</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>71.00037073623233</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276415</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29927,7 +29927,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34143,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899027</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060454</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
